--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22900" windowHeight="13820" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="7820" yWindow="3000" windowWidth="22900" windowHeight="13820" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MSP Events Count 2011v2016" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="MSP Events Count 2006v2016" sheetId="4" r:id="rId3"/>
     <sheet name="MSP Time Above 2006v2016" sheetId="3" r:id="rId4"/>
     <sheet name="Compare" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="source" sheetId="6" r:id="rId6"/>
+    <sheet name="layout" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MSP Events Count 2011v2016'!$A$1:$W$133</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="103">
   <si>
     <t>RMT ID</t>
   </si>
@@ -281,7 +282,64 @@
     <t>2011 - 2016 Time change</t>
   </si>
   <si>
-    <t>Source: MSP Airport</t>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source: Metropolitan Airports Commission</t>
+  </si>
+  <si>
+    <t>Metropolitan Airports Commission</t>
+  </si>
+  <si>
+    <t>MSP Events Count 2011v2016</t>
+  </si>
+  <si>
+    <t>MSP Time Above 2011v2016</t>
+  </si>
+  <si>
+    <t>MSP Events Count 2006v2016</t>
+  </si>
+  <si>
+    <t>MSP Time Above 2006v2016</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>Noise events and time change around MSP comparing 2006 and 2016</t>
+  </si>
+  <si>
+    <t>Meter ID</t>
+  </si>
+  <si>
+    <t>Number of events at or over 80 decibels</t>
+  </si>
+  <si>
+    <t>Number of events at or over 65 decibels</t>
+  </si>
+  <si>
+    <t>Number of events at or over 90 decibels</t>
+  </si>
+  <si>
+    <t>Number of events at or over 100 decibels</t>
+  </si>
+  <si>
+    <t>Noise  events for arriving planes around MSP comparing 2006 and 2016</t>
+  </si>
+  <si>
+    <t>Noise  events for arriving planes above threshhold around MSP comparing 2006 and 2016</t>
+  </si>
+  <si>
+    <t>Noise  events for departing planes around MSP comparing 2011 and 2016</t>
+  </si>
+  <si>
+    <t>Noise  events for departing planes above threshhold around MSP comparing 2011 and 2016</t>
   </si>
 </sst>
 </file>
@@ -291,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +386,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -528,12 +609,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -605,9 +720,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="37">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -897,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:AD134"/>
   <sheetViews>
-    <sheetView topLeftCell="J49" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD69" sqref="X28:AD69"/>
+    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G49" sqref="A49:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13960,22 +14111,17 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
     <mergeCell ref="S49:S50"/>
     <mergeCell ref="T49:T50"/>
     <mergeCell ref="U49:U50"/>
@@ -13987,6 +14133,11 @@
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="P49:P50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
   </mergeCells>
   <conditionalFormatting sqref="S51:V90">
     <cfRule type="colorScale" priority="6">
@@ -14037,7 +14188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView topLeftCell="F24" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
@@ -27038,7 +27189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q87"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
@@ -30844,26 +30995,426 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="69.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="39" customFormat="1">
+      <c r="A6" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="39" customFormat="1">
+      <c r="A2" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
